--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809543.4373222593</v>
+        <v>-812432.6773722792</v>
       </c>
     </row>
     <row r="7">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78.1971439449931</v>
+        <v>21.09814106319187</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09814106319212</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="G5" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77790332355779</v>
+        <v>47.77790332355787</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="T5" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>78.1971439449931</v>
+        <v>68.87604438674975</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="V6" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>68.87604438674988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.8760443867499</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.81712656661271</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.11615727386189</v>
       </c>
       <c r="R7" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.942760546275139</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,17 +1139,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>153.8072380324132</v>
+      </c>
+      <c r="G8" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="G8" t="n">
-        <v>13.09783323005805</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>140.7094048023552</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.45644170423139</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>187.52558716632</v>
+        <v>89.48249960344553</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.573327086027619</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.88476282189425</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>143.6387508782471</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>202.6460827821275</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>86.14257700143631</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.4406404652863</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>401.8804610791033</v>
       </c>
       <c r="G14" t="n">
         <v>410.5778876545563</v>
@@ -1625,7 +1625,7 @@
         <v>291.0864334811148</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.32111532044257</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.3525533883064</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4128192994478</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>284.1281971414437</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8154996175246</v>
       </c>
       <c r="H15" t="n">
-        <v>87.8201168873703</v>
+        <v>87.82011688737029</v>
       </c>
       <c r="I15" t="n">
-        <v>12.48317941387812</v>
+        <v>12.48317941387809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.6955451153993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.8715743697688</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.99723615843793</v>
+        <v>81.99723615843789</v>
       </c>
       <c r="S16" t="n">
-        <v>187.0811492795302</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.8899499311517</v>
@@ -1822,7 +1822,7 @@
         <v>286.2034254480169</v>
       </c>
       <c r="V16" t="n">
-        <v>153.9262660839993</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947569</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452981</v>
+        <v>54.52629139452869</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424834</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295266</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.992602654573</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053443002</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452925</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2539,10 +2539,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401407</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707164</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612639</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947565</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651996</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262551</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452924</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707178</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112672</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.62773630384</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3913,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I43" t="n">
         <v>54.52629139453015</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
         <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247503</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401414</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="C5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="D5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="E5" t="n">
-        <v>106.554039200635</v>
+        <v>164.2297996873024</v>
       </c>
       <c r="F5" t="n">
-        <v>85.24278560145108</v>
+        <v>85.24278560145093</v>
       </c>
       <c r="G5" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="H5" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="I5" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="J5" t="n">
-        <v>83.67094402114262</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="K5" t="n">
-        <v>83.67094402114262</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="L5" t="n">
-        <v>104.1718385117099</v>
+        <v>83.67094402114247</v>
       </c>
       <c r="M5" t="n">
-        <v>158.652471176044</v>
+        <v>161.0861165266855</v>
       </c>
       <c r="N5" t="n">
-        <v>218.6284658134677</v>
+        <v>221.0621111641091</v>
       </c>
       <c r="O5" t="n">
-        <v>261.92683558316</v>
+        <v>298.4772836696521</v>
       </c>
       <c r="P5" t="n">
-        <v>312.7885757799724</v>
+        <v>300.9304396659408</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.7885757799724</v>
+        <v>312.7885757799719</v>
       </c>
       <c r="R5" t="n">
-        <v>264.5280673723383</v>
+        <v>264.5280673723377</v>
       </c>
       <c r="S5" t="n">
-        <v>264.5280673723383</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="T5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="U5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="V5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="W5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="X5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.5410532864867</v>
+        <v>185.5410532864861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.2297996873027</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="C6" t="n">
-        <v>85.24278560145108</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="D6" t="n">
-        <v>85.24278560145108</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="E6" t="n">
-        <v>85.24278560145108</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="F6" t="n">
-        <v>85.24278560145108</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="G6" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="H6" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="I6" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="J6" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="K6" t="n">
-        <v>8.806311856974416</v>
+        <v>8.806311856974322</v>
       </c>
       <c r="L6" t="n">
-        <v>58.5583692573352</v>
+        <v>58.55836925733496</v>
       </c>
       <c r="M6" t="n">
-        <v>135.9735417628784</v>
+        <v>135.973541762878</v>
       </c>
       <c r="N6" t="n">
-        <v>213.3887142684216</v>
+        <v>213.388714268421</v>
       </c>
       <c r="O6" t="n">
-        <v>281.0325340179574</v>
+        <v>277.0441610496958</v>
       </c>
       <c r="P6" t="n">
-        <v>312.7885757799724</v>
+        <v>308.8002028117107</v>
       </c>
       <c r="Q6" t="n">
-        <v>312.7885757799724</v>
+        <v>312.7885757799719</v>
       </c>
       <c r="R6" t="n">
-        <v>312.7885757799724</v>
+        <v>312.7885757799719</v>
       </c>
       <c r="S6" t="n">
-        <v>312.7885757799724</v>
+        <v>312.7885757799719</v>
       </c>
       <c r="T6" t="n">
-        <v>312.7885757799724</v>
+        <v>233.8015616941204</v>
       </c>
       <c r="U6" t="n">
-        <v>312.7885757799724</v>
+        <v>154.8145476082689</v>
       </c>
       <c r="V6" t="n">
-        <v>233.8015616941208</v>
+        <v>154.8145476082689</v>
       </c>
       <c r="W6" t="n">
-        <v>233.8015616941208</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="X6" t="n">
-        <v>233.8015616941208</v>
+        <v>75.82753352241737</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.2297996873027</v>
+        <v>75.82753352241737</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233.8015616941208</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8145476082692</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="D7" t="n">
-        <v>85.24278560145108</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="E7" t="n">
-        <v>85.24278560145108</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="F7" t="n">
-        <v>85.24278560145108</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="G7" t="n">
-        <v>6.255771515599449</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="H7" t="n">
-        <v>6.255771515599449</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="I7" t="n">
-        <v>6.255771515599449</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="J7" t="n">
-        <v>6.255771515599449</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="K7" t="n">
-        <v>68.06140741317927</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="L7" t="n">
-        <v>145.4765799187225</v>
+        <v>6.255771515599438</v>
       </c>
       <c r="M7" t="n">
-        <v>222.8917524242656</v>
+        <v>83.67094402114247</v>
       </c>
       <c r="N7" t="n">
-        <v>300.3069249298088</v>
+        <v>157.9582307688858</v>
       </c>
       <c r="O7" t="n">
-        <v>300.3069249298088</v>
+        <v>235.3734032744289</v>
       </c>
       <c r="P7" t="n">
-        <v>312.7885757799724</v>
+        <v>312.7885757799719</v>
       </c>
       <c r="Q7" t="n">
-        <v>312.7885757799724</v>
+        <v>287.4187199477881</v>
       </c>
       <c r="R7" t="n">
-        <v>233.8015616941208</v>
+        <v>208.4317058619366</v>
       </c>
       <c r="S7" t="n">
-        <v>233.8015616941208</v>
+        <v>208.4317058619366</v>
       </c>
       <c r="T7" t="n">
-        <v>233.8015616941208</v>
+        <v>208.4317058619366</v>
       </c>
       <c r="U7" t="n">
-        <v>233.8015616941208</v>
+        <v>206.4693214717597</v>
       </c>
       <c r="V7" t="n">
-        <v>233.8015616941208</v>
+        <v>127.4823073859082</v>
       </c>
       <c r="W7" t="n">
-        <v>233.8015616941208</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="X7" t="n">
-        <v>233.8015616941208</v>
+        <v>48.49529330005673</v>
       </c>
       <c r="Y7" t="n">
-        <v>233.8015616941208</v>
+        <v>48.49529330005673</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407.0717515820915</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="C8" t="n">
-        <v>407.0717515820915</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="D8" t="n">
-        <v>407.0717515820915</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="E8" t="n">
-        <v>217.6519665656066</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="F8" t="n">
-        <v>28.23218154912181</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H8" t="n">
         <v>15.0020469733056</v>
@@ -4802,19 +4802,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O8" t="n">
         <v>649.4845259985584</v>
@@ -4826,28 +4826,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="W8" t="n">
-        <v>549.2024635036623</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="X8" t="n">
-        <v>407.0717515820915</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="Y8" t="n">
-        <v>407.0717515820915</v>
+        <v>738.6222485201472</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>203.0474416122421</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C9" t="n">
-        <v>28.59441233111508</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
         <v>15.0020469733056</v>
@@ -4884,19 +4884,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
         <v>739.5989987017064</v>
@@ -4905,28 +4905,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652798</v>
+        <v>533.499507267843</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652798</v>
+        <v>344.0797222513582</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652798</v>
+        <v>154.6599372348734</v>
       </c>
       <c r="X9" t="n">
-        <v>560.6825636487949</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="Y9" t="n">
-        <v>371.2627786323101</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.8859279516578</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="C10" t="n">
-        <v>367.8859279516578</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="D10" t="n">
-        <v>217.7692885393221</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="E10" t="n">
-        <v>217.7692885393221</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="F10" t="n">
-        <v>70.87934104141175</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G10" t="n">
-        <v>70.87934104141175</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H10" t="n">
-        <v>70.87934104141175</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J10" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>88.8571895220268</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745584</v>
+        <v>261.7447676371619</v>
       </c>
       <c r="M10" t="n">
-        <v>465.2530182692152</v>
+        <v>447.3950989318187</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287296</v>
+        <v>633.0454302264754</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652798</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P10" t="n">
         <v>750.1023486652798</v>
@@ -4984,28 +4984,28 @@
         <v>746.7254979846275</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846275</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846275</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846275</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846275</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="V10" t="n">
-        <v>746.7254979846275</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="W10" t="n">
-        <v>746.7254979846275</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="X10" t="n">
-        <v>557.3057129681426</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="Y10" t="n">
-        <v>367.8859279516578</v>
+        <v>44.30213322740502</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140707</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>936.9705155339566</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>551.1822629357121</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389511</v>
+        <v>551.1822629357121</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5036,55 +5036,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3120.91280869793</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2768.144153427816</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2394.678395166737</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2004.539063190925</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>934.4107598040974</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>765.4745768761906</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>615.3579374638548</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>467.4448438814616</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>467.4448438814616</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>299.7420072561805</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>153.5248204740383</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845645</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947628</v>
+        <v>1008.233631465111</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040974</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.651300663907</v>
+        <v>1603.984227195367</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.688783723496</v>
+        <v>1603.984227195367</v>
       </c>
       <c r="D14" t="n">
-        <v>1580.423085116745</v>
+        <v>1603.984227195367</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.634832518501</v>
+        <v>1218.195974597123</v>
       </c>
       <c r="F14" t="n">
-        <v>783.6489277288936</v>
+        <v>812.2561149212605</v>
       </c>
       <c r="G14" t="n">
-        <v>368.923788683888</v>
+        <v>397.5309758762543</v>
       </c>
       <c r="H14" t="n">
-        <v>74.89708819791345</v>
+        <v>103.5042753902797</v>
       </c>
       <c r="I14" t="n">
-        <v>74.89708819791345</v>
+        <v>74.8970881979135</v>
       </c>
       <c r="J14" t="n">
-        <v>292.667211312249</v>
+        <v>292.6672113122499</v>
       </c>
       <c r="K14" t="n">
-        <v>669.7866930257896</v>
+        <v>669.7866930257915</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.538519135055</v>
+        <v>1174.538519135057</v>
       </c>
       <c r="M14" t="n">
-        <v>1767.841618390594</v>
+        <v>1767.841618390596</v>
       </c>
       <c r="N14" t="n">
-        <v>2375.358790450214</v>
+        <v>2375.358790450216</v>
       </c>
       <c r="O14" t="n">
-        <v>2935.68476761987</v>
+        <v>2935.684767619874</v>
       </c>
       <c r="P14" t="n">
-        <v>3379.409024675572</v>
+        <v>3379.409024675575</v>
       </c>
       <c r="Q14" t="n">
-        <v>3664.454715777627</v>
+        <v>3664.45471577763</v>
       </c>
       <c r="R14" t="n">
-        <v>3744.854409895672</v>
+        <v>3744.854409895675</v>
       </c>
       <c r="S14" t="n">
-        <v>3744.854409895672</v>
+        <v>3642.47809334183</v>
       </c>
       <c r="T14" t="n">
-        <v>3744.854409895672</v>
+        <v>3438.020700110065</v>
       </c>
       <c r="U14" t="n">
-        <v>3744.854409895672</v>
+        <v>3438.020700110065</v>
       </c>
       <c r="V14" t="n">
-        <v>3457.856230964921</v>
+        <v>3106.957812766494</v>
       </c>
       <c r="W14" t="n">
-        <v>3457.856230964921</v>
+        <v>2754.18915749638</v>
       </c>
       <c r="X14" t="n">
-        <v>3084.390472703841</v>
+        <v>2380.7233992353</v>
       </c>
       <c r="Y14" t="n">
-        <v>2694.251140728029</v>
+        <v>1990.584067259489</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2135491082654</v>
       </c>
       <c r="H15" t="n">
-        <v>87.50636033314387</v>
+        <v>87.5063603331439</v>
       </c>
       <c r="I15" t="n">
-        <v>74.89708819791345</v>
+        <v>74.8970881979135</v>
       </c>
       <c r="J15" t="n">
-        <v>185.781634693123</v>
+        <v>185.7816346931231</v>
       </c>
       <c r="K15" t="n">
-        <v>453.4558108090753</v>
+        <v>453.4558108090755</v>
       </c>
       <c r="L15" t="n">
-        <v>859.6993147971659</v>
+        <v>859.6993147971664</v>
       </c>
       <c r="M15" t="n">
-        <v>1353.123190855343</v>
+        <v>1048.180883165516</v>
       </c>
       <c r="N15" t="n">
-        <v>1874.015173599961</v>
+        <v>1569.072865910134</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.309778103579</v>
+        <v>2023.367470413752</v>
       </c>
       <c r="P15" t="n">
         <v>2368.645875604443</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.3803159437688</v>
+        <v>501.1477624485191</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4441330158617</v>
+        <v>501.1477624485191</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4441330158617</v>
+        <v>389.3340805137722</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4441330158617</v>
+        <v>389.3340805137722</v>
       </c>
       <c r="F16" t="n">
-        <v>242.4441330158617</v>
+        <v>242.4441330158618</v>
       </c>
       <c r="G16" t="n">
-        <v>74.89708819791345</v>
+        <v>74.89708819791349</v>
       </c>
       <c r="H16" t="n">
-        <v>74.89708819791345</v>
+        <v>74.89708819791349</v>
       </c>
       <c r="I16" t="n">
-        <v>74.89708819791345</v>
+        <v>74.89708819791349</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8150132557827</v>
+        <v>130.8150132557829</v>
       </c>
       <c r="K16" t="n">
-        <v>352.5421781472763</v>
+        <v>352.5421781472765</v>
       </c>
       <c r="L16" t="n">
-        <v>691.8030458203077</v>
+        <v>691.8030458203081</v>
       </c>
       <c r="M16" t="n">
         <v>1059.895185992357</v>
       </c>
       <c r="N16" t="n">
-        <v>1424.669534219354</v>
+        <v>1424.669534219355</v>
       </c>
       <c r="O16" t="n">
-        <v>1745.581389731615</v>
+        <v>1745.581389731616</v>
       </c>
       <c r="P16" t="n">
-        <v>1996.656239129639</v>
+        <v>1996.65623912964</v>
       </c>
       <c r="Q16" t="n">
-        <v>2087.052370467869</v>
+        <v>2087.05237046787</v>
       </c>
       <c r="R16" t="n">
-        <v>2004.22687939874</v>
+        <v>2004.226879398741</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.256021540629</v>
+        <v>2004.226879398741</v>
       </c>
       <c r="T16" t="n">
-        <v>1594.155062014212</v>
+        <v>1783.125919872325</v>
       </c>
       <c r="U16" t="n">
-        <v>1305.060692874802</v>
+        <v>1494.031550732914</v>
       </c>
       <c r="V16" t="n">
-        <v>1149.579616022277</v>
+        <v>1239.347062527027</v>
       </c>
       <c r="W16" t="n">
-        <v>860.1624459853163</v>
+        <v>949.9298924900665</v>
       </c>
       <c r="X16" t="n">
-        <v>632.1728950872989</v>
+        <v>721.9403415920492</v>
       </c>
       <c r="Y16" t="n">
-        <v>411.3803159437688</v>
+        <v>501.1477624485191</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162849</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5519,10 +5519,10 @@
         <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
         <v>2681.771598889756</v>
@@ -5592,28 +5592,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E19" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897917</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5689,7 +5689,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5704,7 +5704,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5713,7 +5713,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511625</v>
@@ -5756,10 +5756,10 @@
         <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889756</v>
@@ -5777,25 +5777,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315375</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749433</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897936</v>
+        <v>140.0574709897923</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6011,10 +6011,10 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
         <v>4017.391409283565</v>
@@ -6026,13 +6026,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448909</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M24" t="n">
-        <v>850.66941185518</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897925</v>
+        <v>140.0574709897923</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6175,7 +6175,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
@@ -6212,46 +6212,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283565</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>670.3561405779135</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1219.274605188203</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,7 +6397,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
@@ -6406,16 +6406,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357084</v>
@@ -6427,7 +6427,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
@@ -6485,28 +6485,28 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>379.1222506293337</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>832.9208802236611</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N30" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074945</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897938</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6646,25 +6646,25 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6725,25 +6725,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q33" t="n">
         <v>2530.879212293268</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
@@ -6859,13 +6859,13 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902785</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
@@ -6874,7 +6874,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6886,10 +6886,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357084</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6974,13 +6974,13 @@
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897923</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354974</v>
@@ -7114,7 +7114,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352543</v>
@@ -7123,19 +7123,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7163,25 +7163,25 @@
         <v>725.1782574796681</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889756</v>
@@ -7251,16 +7251,16 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
         <v>1662.137679823382</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315386</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044362</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
@@ -7354,28 +7354,28 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,7 +7421,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7430,7 +7430,7 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755812</v>
@@ -7454,7 +7454,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448909</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>538.7790385694437</v>
       </c>
       <c r="M42" t="n">
-        <v>850.66941185518</v>
+        <v>1087.697503179733</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>1665.552851106135</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2171.957806054385</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7552,16 +7552,16 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
@@ -7570,25 +7570,25 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
         <v>2487.049233352543</v>
@@ -7628,13 +7628,13 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796681</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
@@ -7646,22 +7646,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951456</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7679,19 +7679,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
@@ -7804,28 +7804,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>121.3031964962775</v>
+        <v>43.10605255128448</v>
       </c>
       <c r="K5" t="n">
-        <v>13.35377015170047</v>
+        <v>13.35377015170064</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>57.48916971209687</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>23.1662018598073</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>34.46141690489998</v>
       </c>
       <c r="P5" t="n">
-        <v>48.89755979850875</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.79851374509641</v>
+        <v>58.77642901179468</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>44.68159581270625</v>
+        <v>44.68159581270631</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.028659563899893</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.98093280782345</v>
+        <v>33.00959237172368</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>44.31383109457197</v>
       </c>
       <c r="L7" t="n">
-        <v>104.6957145611056</v>
+        <v>26.4985706161126</v>
       </c>
       <c r="M7" t="n">
         <v>102.84497632211</v>
       </c>
       <c r="N7" t="n">
-        <v>94.32201110430341</v>
+        <v>91.16253054086931</v>
       </c>
       <c r="O7" t="n">
-        <v>35.41219634096009</v>
+        <v>113.6093402859531</v>
       </c>
       <c r="P7" t="n">
-        <v>62.1634960445839</v>
+        <v>127.7529118580986</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>88.70546398364588</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
@@ -8620,13 +8620,13 @@
         <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>99.67938739116994</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>267.2829747752064</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>125.1061756880074</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10.20984340840179</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.26901492375086</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4.99558466260811</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.32111532044263</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.3525533883065</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4128192994478</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9676649189902</v>
       </c>
       <c r="V14" t="n">
-        <v>43.6240613286912</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>37.91992790281304</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>143.383735426178</v>
       </c>
       <c r="I16" t="n">
-        <v>91.71418672192789</v>
+        <v>91.71418672192786</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.0811492795302</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>98.21137723982866</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.198091796324334e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>1.499245172453811e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.503269570371813e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.805489753489383e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.166001291305292e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-4.618527782440651e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-13</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997430.8025258428</v>
+        <v>997430.8025258427</v>
       </c>
     </row>
     <row r="6">
@@ -26317,16 +26317,16 @@
         <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
         <v>204598.2593825524</v>
       </c>
       <c r="F2" t="n">
-        <v>216141.5761744282</v>
+        <v>216141.5761744283</v>
       </c>
       <c r="G2" t="n">
-        <v>246312.5309592852</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="H2" t="n">
         <v>246312.5309592851</v>
@@ -26335,10 +26335,10 @@
         <v>246312.5309592851</v>
       </c>
       <c r="J2" t="n">
+        <v>246312.5309592851</v>
+      </c>
+      <c r="K2" t="n">
         <v>246312.5309592852</v>
-      </c>
-      <c r="K2" t="n">
-        <v>246312.5309592851</v>
       </c>
       <c r="L2" t="n">
         <v>246312.5309592851</v>
@@ -26347,13 +26347,13 @@
         <v>246312.530959285</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>155917.2887368132</v>
+        <v>155917.2887368129</v>
       </c>
       <c r="D3" t="n">
-        <v>157449.2131172126</v>
+        <v>157449.213117213</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>97637.93072761589</v>
+        <v>97637.93072761639</v>
       </c>
       <c r="G3" t="n">
-        <v>139801.4831923313</v>
+        <v>139801.4831923307</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20125.44254283498</v>
+        <v>20125.44254283495</v>
       </c>
       <c r="L3" t="n">
-        <v>52958.20690510002</v>
+        <v>52958.20690509997</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
-        <v>25671.324745812</v>
+        <v>25671.32474581211</v>
       </c>
       <c r="O3" t="n">
-        <v>30332.01535443288</v>
+        <v>30332.01535443272</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>360207.2495555317</v>
       </c>
       <c r="C4" t="n">
-        <v>318965.8990796277</v>
+        <v>318965.8990796278</v>
       </c>
       <c r="D4" t="n">
         <v>272582.5508032602</v>
@@ -26427,37 +26427,37 @@
         <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9214.698066739984</v>
+        <v>9214.698066739986</v>
       </c>
       <c r="G4" t="n">
-        <v>40349.81915099768</v>
+        <v>40349.81915099766</v>
       </c>
       <c r="H4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099766</v>
       </c>
       <c r="I4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="J4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099766</v>
       </c>
       <c r="K4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099769</v>
       </c>
       <c r="L4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099766</v>
       </c>
       <c r="M4" t="n">
         <v>40349.81915099768</v>
       </c>
       <c r="N4" t="n">
+        <v>40349.81915099772</v>
+      </c>
+      <c r="O4" t="n">
         <v>40349.81915099769</v>
       </c>
-      <c r="O4" t="n">
-        <v>40349.81915099768</v>
-      </c>
       <c r="P4" t="n">
-        <v>40349.81915099765</v>
+        <v>40349.8191509977</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
-        <v>47195.23346653604</v>
+        <v>47195.23346653602</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161358</v>
@@ -26479,7 +26479,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82543.46661186777</v>
+        <v>82543.46661186783</v>
       </c>
       <c r="G5" t="n">
         <v>95106.4341021553</v>
@@ -26488,13 +26488,13 @@
         <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
         <v>95106.4341021553</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405019.0670265512</v>
+        <v>-405023.2719673053</v>
       </c>
       <c r="C6" t="n">
-        <v>-275765.8903236921</v>
+        <v>-275765.8903236919</v>
       </c>
       <c r="D6" t="n">
-        <v>-240705.0333728015</v>
+        <v>-240705.0333728018</v>
       </c>
       <c r="E6" t="n">
-        <v>-506003.1839495878</v>
+        <v>-506350.8028793938</v>
       </c>
       <c r="F6" t="n">
-        <v>26745.48076820458</v>
+        <v>26494.05614499696</v>
       </c>
       <c r="G6" t="n">
-        <v>-28945.20548619906</v>
+        <v>-28945.20548619855</v>
       </c>
       <c r="H6" t="n">
-        <v>110856.277706132</v>
+        <v>110856.2777061321</v>
       </c>
       <c r="I6" t="n">
         <v>110856.2777061321</v>
@@ -26546,19 +26546,19 @@
         <v>110856.2777061321</v>
       </c>
       <c r="K6" t="n">
-        <v>90730.83516329712</v>
+        <v>90730.83516329728</v>
       </c>
       <c r="L6" t="n">
-        <v>57898.07080103204</v>
+        <v>57898.07080103215</v>
       </c>
       <c r="M6" t="n">
-        <v>-49600.16416174528</v>
+        <v>-49600.16416174543</v>
       </c>
       <c r="N6" t="n">
-        <v>85184.95296032008</v>
+        <v>85184.95296031996</v>
       </c>
       <c r="O6" t="n">
-        <v>80524.26235169923</v>
+        <v>80524.26235169938</v>
       </c>
       <c r="P6" t="n">
         <v>110856.2777061321</v>
@@ -26698,22 +26698,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221391</v>
@@ -26722,10 +26722,10 @@
         <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>404.2773905816724</v>
+        <v>404.2773905816721</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1175.30640281897</v>
+        <v>1175.306402818971</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>936.2136024739181</v>
+        <v>936.2136024739187</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>143.4809980642076</v>
+        <v>143.4809980642073</v>
       </c>
       <c r="D3" t="n">
-        <v>144.1925503312322</v>
+        <v>144.1925503312326</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
-        <v>85.52970222567205</v>
+        <v>85.52970222567251</v>
       </c>
       <c r="G3" t="n">
-        <v>102.8534678011526</v>
+        <v>102.8534678011522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="D4" t="n">
-        <v>109.3284432213269</v>
+        <v>109.328443221327</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
-        <v>104.8121470716254</v>
+        <v>104.8121470716259</v>
       </c>
       <c r="G4" t="n">
-        <v>126.041509715035</v>
+        <v>126.0415097150343</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3284432213271</v>
+        <v>109.328443221327</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
-        <v>104.8121470716254</v>
+        <v>104.8121470716259</v>
       </c>
       <c r="O4" t="n">
-        <v>126.041509715035</v>
+        <v>126.0415097150343</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3284432213269</v>
+        <v>109.328443221327</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
-        <v>104.8121470716254</v>
+        <v>104.8121470716259</v>
       </c>
       <c r="O4" t="n">
-        <v>126.041509715035</v>
+        <v>126.0415097150343</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>303.7332261272687</v>
+        <v>360.8322290090699</v>
       </c>
       <c r="F5" t="n">
-        <v>385.7779046785193</v>
+        <v>328.6789017967185</v>
       </c>
       <c r="G5" t="n">
-        <v>335.4803578291101</v>
+        <v>335.4803578291102</v>
       </c>
       <c r="H5" t="n">
-        <v>322.8303565829247</v>
+        <v>322.8303565829248</v>
       </c>
       <c r="I5" t="n">
-        <v>147.8189886642755</v>
+        <v>147.8189886642756</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>171.9850101374821</v>
+        <v>93.78786619248913</v>
       </c>
       <c r="T5" t="n">
-        <v>137.7842361627713</v>
+        <v>215.9813801077644</v>
       </c>
       <c r="U5" t="n">
         <v>251.2156340485539</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>94.51135504332264</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>58.27679543470224</v>
+        <v>67.59789499294558</v>
       </c>
       <c r="H6" t="n">
         <v>103.8371535378093</v>
       </c>
       <c r="I6" t="n">
-        <v>59.45722232248933</v>
+        <v>59.45722232248936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.16773282175486</v>
+        <v>46.1677328217549</v>
       </c>
       <c r="S6" t="n">
         <v>155.5311451688059</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6597199972314</v>
+        <v>118.4625760522385</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8841730162699</v>
+        <v>147.6870290712769</v>
       </c>
       <c r="V6" t="n">
-        <v>154.6034432044322</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>173.4978392159266</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>136.8066513905545</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>89.04967715363473</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>79.73942863146246</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>89.0648106107774</v>
+        <v>167.2619545557705</v>
       </c>
       <c r="H7" t="n">
         <v>155.7454792617203</v>
@@ -27795,7 +27795,7 @@
         <v>133.5267108609604</v>
       </c>
       <c r="J7" t="n">
-        <v>41.81712656661268</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.11615727386185</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>66.31664130402964</v>
+        <v>66.31664130402979</v>
       </c>
       <c r="S7" t="n">
         <v>211.3116839755778</v>
@@ -27828,13 +27828,13 @@
         <v>224.8306652713407</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2792643672533</v>
+        <v>284.3365038209782</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>173.940499378835</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>208.325854391598</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>253.0688077092982</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I8" t="n">
         <v>125.4713171199747</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>229.0216958761139</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>133.9886238604074</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X9" t="n">
-        <v>18.24739803715752</v>
+        <v>116.2904856000319</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>174.2586530959097</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.0019352027142</v>
@@ -28029,7 +28029,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>93.82245694897242</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -28065,19 +28065,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713032</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X10" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30046,7 +30046,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="X35" t="n">
         <v>31.61020235221391</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221355</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.625235741031848</v>
+        <v>1.625235741031847</v>
       </c>
       <c r="H5" t="n">
-        <v>16.64444553284241</v>
+        <v>16.6444455328424</v>
       </c>
       <c r="I5" t="n">
-        <v>62.65690090613037</v>
+        <v>62.65690090613032</v>
       </c>
       <c r="J5" t="n">
-        <v>137.9398519754019</v>
+        <v>137.9398519754018</v>
       </c>
       <c r="K5" t="n">
-        <v>206.7360808932801</v>
+        <v>206.7360808932799</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4743892028835</v>
+        <v>256.4743892028833</v>
       </c>
       <c r="M5" t="n">
-        <v>285.3771753124586</v>
+        <v>285.3771753124584</v>
       </c>
       <c r="N5" t="n">
-        <v>289.9948763616654</v>
+        <v>289.9948763616652</v>
       </c>
       <c r="O5" t="n">
-        <v>273.83393846178</v>
+        <v>273.8339384617797</v>
       </c>
       <c r="P5" t="n">
-        <v>233.7109311050562</v>
+        <v>233.710931105056</v>
       </c>
       <c r="Q5" t="n">
-        <v>175.5071761293531</v>
+        <v>175.5071761293529</v>
       </c>
       <c r="R5" t="n">
-        <v>102.0912146175919</v>
+        <v>102.0912146175918</v>
       </c>
       <c r="S5" t="n">
-        <v>37.03505944876326</v>
+        <v>37.03505944876324</v>
       </c>
       <c r="T5" t="n">
-        <v>7.114469456366917</v>
+        <v>7.114469456366912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1300188592825478</v>
+        <v>0.1300188592825477</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8695777835152955</v>
+        <v>0.8695777835152948</v>
       </c>
       <c r="H6" t="n">
-        <v>8.398290698687196</v>
+        <v>8.398290698687191</v>
       </c>
       <c r="I6" t="n">
-        <v>29.93941052892574</v>
+        <v>29.93941052892572</v>
       </c>
       <c r="J6" t="n">
-        <v>82.15603085396044</v>
+        <v>82.15603085396039</v>
       </c>
       <c r="K6" t="n">
-        <v>140.4177423494852</v>
+        <v>140.4177423494851</v>
       </c>
       <c r="L6" t="n">
-        <v>188.808983214582</v>
+        <v>188.8089832145819</v>
       </c>
       <c r="M6" t="n">
-        <v>220.3311778670114</v>
+        <v>220.3311778670113</v>
       </c>
       <c r="N6" t="n">
-        <v>209.5388560283264</v>
+        <v>209.5388560283263</v>
       </c>
       <c r="O6" t="n">
-        <v>206.8946755366414</v>
+        <v>206.8946755366412</v>
       </c>
       <c r="P6" t="n">
-        <v>166.0512172749515</v>
+        <v>166.0512172749513</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0008412781981</v>
+        <v>111.000841278198</v>
       </c>
       <c r="R6" t="n">
-        <v>53.99010133088827</v>
+        <v>53.99010133088824</v>
       </c>
       <c r="S6" t="n">
-        <v>16.1520259350319</v>
+        <v>16.15202593503189</v>
       </c>
       <c r="T6" t="n">
-        <v>3.505008697590159</v>
+        <v>3.505008697590156</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05720906470495367</v>
+        <v>0.05720906470495363</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7290248026882616</v>
+        <v>0.7290248026882611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.481693245719277</v>
+        <v>6.481693245719272</v>
       </c>
       <c r="I7" t="n">
-        <v>21.92376406629791</v>
+        <v>21.9237640662979</v>
       </c>
       <c r="J7" t="n">
-        <v>51.5420535500601</v>
+        <v>51.54205355006006</v>
       </c>
       <c r="K7" t="n">
-        <v>84.69942707596347</v>
+        <v>84.69942707596341</v>
       </c>
       <c r="L7" t="n">
-        <v>108.3861056651258</v>
+        <v>108.3861056651257</v>
       </c>
       <c r="M7" t="n">
-        <v>114.2779515704881</v>
+        <v>114.277951570488</v>
       </c>
       <c r="N7" t="n">
-        <v>111.5606773059229</v>
+        <v>111.5606773059228</v>
       </c>
       <c r="O7" t="n">
-        <v>103.0443421108827</v>
+        <v>103.0443421108826</v>
       </c>
       <c r="P7" t="n">
-        <v>88.17223613604209</v>
+        <v>88.17223613604202</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.04588597783253</v>
+        <v>61.04588597783249</v>
       </c>
       <c r="R7" t="n">
-        <v>32.77960612814674</v>
+        <v>32.77960612814672</v>
       </c>
       <c r="S7" t="n">
-        <v>12.70491406139452</v>
+        <v>12.70491406139451</v>
       </c>
       <c r="T7" t="n">
-        <v>3.114924156940754</v>
+        <v>3.114924156940751</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03976498923754159</v>
+        <v>0.03976498923754156</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,13 +31516,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
         <v>280.4720934528639</v>
@@ -31534,25 +31534,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31598,7 +31598,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31607,16 +31607,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
         <v>225.2762668628872</v>
@@ -31625,16 +31625,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31701,19 +31701,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.724849860578772</v>
+        <v>4.724849860578773</v>
       </c>
       <c r="H14" t="n">
-        <v>48.38836863465236</v>
+        <v>48.38836863465238</v>
       </c>
       <c r="I14" t="n">
         <v>182.1547742499633</v>
       </c>
       <c r="J14" t="n">
-        <v>401.0157258542979</v>
+        <v>401.0157258542981</v>
       </c>
       <c r="K14" t="n">
-        <v>601.0186204525974</v>
+        <v>601.0186204525977</v>
       </c>
       <c r="L14" t="n">
-        <v>745.6167443732852</v>
+        <v>745.6167443732854</v>
       </c>
       <c r="M14" t="n">
-        <v>829.6422930813528</v>
+        <v>829.6422930813532</v>
       </c>
       <c r="N14" t="n">
-        <v>843.0667727477223</v>
+        <v>843.0667727477227</v>
       </c>
       <c r="O14" t="n">
-        <v>796.0840469465921</v>
+        <v>796.0840469465925</v>
       </c>
       <c r="P14" t="n">
-        <v>679.4393160135536</v>
+        <v>679.4393160135538</v>
       </c>
       <c r="Q14" t="n">
-        <v>510.2306303815762</v>
+        <v>510.2306303815764</v>
       </c>
       <c r="R14" t="n">
-        <v>296.7973500545816</v>
+        <v>296.7973500545817</v>
       </c>
       <c r="S14" t="n">
         <v>107.6675161979389</v>
       </c>
       <c r="T14" t="n">
-        <v>20.68303026468358</v>
+        <v>20.68303026468359</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3779879888463016</v>
+        <v>0.3779879888463018</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.528017545686087</v>
+        <v>2.528017545686088</v>
       </c>
       <c r="H15" t="n">
-        <v>24.41532734912616</v>
+        <v>24.41532734912617</v>
       </c>
       <c r="I15" t="n">
-        <v>87.03920058612188</v>
+        <v>87.03920058612191</v>
       </c>
       <c r="J15" t="n">
-        <v>238.8422190860702</v>
+        <v>238.8422190860703</v>
       </c>
       <c r="K15" t="n">
-        <v>408.2193946470381</v>
+        <v>408.2193946470382</v>
       </c>
       <c r="L15" t="n">
-        <v>548.9013535052183</v>
+        <v>548.9013535052185</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5419895363387</v>
+        <v>332.5194565163106</v>
       </c>
       <c r="N15" t="n">
-        <v>657.4952300071899</v>
+        <v>657.4952300071901</v>
       </c>
       <c r="O15" t="n">
-        <v>601.4796833369876</v>
+        <v>601.4796833369878</v>
       </c>
       <c r="P15" t="n">
-        <v>174.7179402434854</v>
+        <v>482.7404732635128</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.6992221475784</v>
+        <v>322.6992221475786</v>
       </c>
       <c r="R15" t="n">
         <v>156.9588437575977</v>
       </c>
       <c r="S15" t="n">
-        <v>46.95681713149374</v>
+        <v>46.95681713149376</v>
       </c>
       <c r="T15" t="n">
         <v>10.18968475651541</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1663169437951374</v>
+        <v>0.1663169437951375</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.119404988689946</v>
+        <v>2.119404988689947</v>
       </c>
       <c r="H16" t="n">
         <v>18.84343708126154</v>
       </c>
       <c r="I16" t="n">
-        <v>63.7362882053304</v>
+        <v>63.73628820533043</v>
       </c>
       <c r="J16" t="n">
-        <v>149.8419327003792</v>
+        <v>149.8419327003793</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2363250496137</v>
+        <v>246.2363250496138</v>
       </c>
       <c r="L16" t="n">
-        <v>315.097719863958</v>
+        <v>315.0977198639582</v>
       </c>
       <c r="M16" t="n">
-        <v>332.2263656361885</v>
+        <v>332.2263656361887</v>
       </c>
       <c r="N16" t="n">
-        <v>324.326765223799</v>
+        <v>324.3267652237992</v>
       </c>
       <c r="O16" t="n">
-        <v>299.5682614922845</v>
+        <v>299.5682614922846</v>
       </c>
       <c r="P16" t="n">
-        <v>256.3323997230094</v>
+        <v>256.3323997230095</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.4712668256645</v>
+        <v>177.4712668256646</v>
       </c>
       <c r="R16" t="n">
-        <v>95.29615521873156</v>
+        <v>95.2961552187316</v>
       </c>
       <c r="S16" t="n">
-        <v>36.93544875744205</v>
+        <v>36.93544875744207</v>
       </c>
       <c r="T16" t="n">
-        <v>9.055639497129768</v>
+        <v>9.055639497129771</v>
       </c>
       <c r="U16" t="n">
         <v>0.1156039084739972</v>
@@ -32312,13 +32312,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
         <v>696.597129487967</v>
@@ -32327,16 +32327,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>392.4972796419682</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
         <v>696.597129487967</v>
@@ -32804,13 +32804,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
         <v>696.597129487967</v>
@@ -33041,13 +33041,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>388.6302480819394</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33263,7 +33263,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>302.0482466973365</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
@@ -33275,13 +33275,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>211.6584993001647</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>668.1323322018327</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
@@ -33518,7 +33518,7 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>170.6946332877214</v>
@@ -33734,19 +33734,19 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578284</v>
@@ -33755,10 +33755,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33971,19 +33971,19 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578284</v>
@@ -34153,7 +34153,7 @@
         <v>554.8819566972012</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581568</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>223.8954149958791</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.597129487967</v>
@@ -34226,13 +34226,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>521.5364117268584</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171643</v>
       </c>
       <c r="L44" t="n">
         <v>810.8671910869753</v>
@@ -34448,16 +34448,16 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8954149958791</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578284</v>
@@ -34466,10 +34466,10 @@
         <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.70797423289628</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="M5" t="n">
-        <v>55.0309420851859</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="N5" t="n">
-        <v>60.58181276507446</v>
+        <v>60.58181276507429</v>
       </c>
       <c r="O5" t="n">
-        <v>43.73572704009322</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="P5" t="n">
-        <v>51.37549514829539</v>
+        <v>2.477935349786463</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>11.97791526669812</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.57630337512623</v>
+        <v>2.576303375126145</v>
       </c>
       <c r="L6" t="n">
-        <v>50.25460343470786</v>
+        <v>50.25460343470772</v>
       </c>
       <c r="M6" t="n">
-        <v>78.19714394499312</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="N6" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="O6" t="n">
-        <v>68.32709065609681</v>
+        <v>64.29843109219678</v>
       </c>
       <c r="P6" t="n">
-        <v>32.07680986062124</v>
+        <v>32.0768098606211</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>4.028659563900161</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>62.42993525008062</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>78.1971439449931</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>78.1971439449931</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="N7" t="n">
-        <v>78.1971439449931</v>
+        <v>75.03766338155893</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="P7" t="n">
-        <v>12.60772813147837</v>
+        <v>78.19714394499297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>74.60115408961738</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880152</v>
@@ -35340,13 +35340,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>123.3445726863782</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.9698213276116</v>
+        <v>219.9698213276118</v>
       </c>
       <c r="K14" t="n">
-        <v>380.9287694076168</v>
+        <v>380.9287694076172</v>
       </c>
       <c r="L14" t="n">
-        <v>509.850329403298</v>
+        <v>509.8503294032982</v>
       </c>
       <c r="M14" t="n">
-        <v>599.2960598540801</v>
+        <v>599.2960598540805</v>
       </c>
       <c r="N14" t="n">
-        <v>613.6537091511314</v>
+        <v>613.6537091511318</v>
       </c>
       <c r="O14" t="n">
-        <v>565.9858355249054</v>
+        <v>565.9858355249057</v>
       </c>
       <c r="P14" t="n">
-        <v>448.2063202582841</v>
+        <v>448.2063202582843</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.9249405071267</v>
+        <v>287.9249405071268</v>
       </c>
       <c r="R14" t="n">
-        <v>81.21181224044943</v>
+        <v>81.21181224044955</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>112.0045924194035</v>
+        <v>112.0045924194036</v>
       </c>
       <c r="K15" t="n">
-        <v>270.3779556726791</v>
+        <v>270.3779556726792</v>
       </c>
       <c r="L15" t="n">
-        <v>410.3469737253441</v>
+        <v>410.3469737253443</v>
       </c>
       <c r="M15" t="n">
-        <v>498.4079556143204</v>
+        <v>190.3854225942923</v>
       </c>
       <c r="N15" t="n">
-        <v>526.1535179238566</v>
+        <v>526.1535179238568</v>
       </c>
       <c r="O15" t="n">
-        <v>458.8834388925432</v>
+        <v>458.8834388925434</v>
       </c>
       <c r="P15" t="n">
-        <v>40.74353282915517</v>
+        <v>348.7660658491826</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.7174480615569</v>
+        <v>182.7174480615571</v>
       </c>
       <c r="R15" t="n">
-        <v>11.27933979363371</v>
+        <v>11.27933979363377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.48275258370643</v>
+        <v>56.48275258370649</v>
       </c>
       <c r="K16" t="n">
-        <v>223.9668332237308</v>
+        <v>223.966833223731</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6877451242742</v>
+        <v>342.6877451242743</v>
       </c>
       <c r="M16" t="n">
-        <v>371.8102425980291</v>
+        <v>371.8102425980293</v>
       </c>
       <c r="N16" t="n">
-        <v>368.4589376030276</v>
+        <v>368.4589376030277</v>
       </c>
       <c r="O16" t="n">
-        <v>324.1533894063242</v>
+        <v>324.1533894063243</v>
       </c>
       <c r="P16" t="n">
-        <v>253.6109589879029</v>
+        <v>253.610958987903</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.30922357397013</v>
+        <v>91.30922357397021</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35975,16 +35975,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36364,7 +36364,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151683</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>254.6558406676093</v>
       </c>
       <c r="L24" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36452,13 +36452,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36689,13 +36689,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>254.6558406676091</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36853,7 +36853,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>164.2068077229775</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
@@ -36923,13 +36923,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>69.06225485572025</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>525.9982982798143</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
@@ -37166,7 +37166,7 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>25.01512932375746</v>
@@ -37227,19 +37227,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O36" t="n">
         <v>511.520156513384</v>
@@ -37403,10 +37403,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381579</v>
       </c>
       <c r="N38" t="n">
         <v>687.4322072151683</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O39" t="n">
         <v>511.520156513384</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37801,7 +37801,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>86.0539760215201</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,13 +37874,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>387.5620043125282</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721838</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
@@ -38096,16 +38096,16 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>86.0539760215201</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O45" t="n">
         <v>511.520156513384</v>
@@ -38114,10 +38114,10 @@
         <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
